--- a/results/CNN Models/full_dataset/ResNet50/result_for_ResNet50.xlsx
+++ b/results/CNN Models/full_dataset/ResNet50/result_for_ResNet50.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.9941291585127201</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0.9970559371933267</v>
       </c>
       <c r="E2" t="n">
-        <v>60</v>
+        <v>508</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.9927007299270073</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.9353507565337001</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.9631728045325779</v>
       </c>
       <c r="E3" t="n">
-        <v>75</v>
+        <v>727</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.9864864864864865</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.9931972789115646</v>
       </c>
       <c r="E4" t="n">
-        <v>15</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.9970802919708029</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0.9985380116959064</v>
       </c>
       <c r="E5" t="n">
-        <v>158</v>
+        <v>685</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.5625</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.9375</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.703125</v>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7">
@@ -557,16 +557,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0.9761904761904762</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0.9454926624737946</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0.9605963791267306</v>
       </c>
       <c r="E7" t="n">
-        <v>92</v>
+        <v>477</v>
       </c>
     </row>
     <row r="8">
@@ -585,7 +585,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9">
@@ -595,16 +595,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10">
@@ -614,16 +614,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0.8285714285714286</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0.90625</v>
       </c>
       <c r="E10" t="n">
-        <v>16</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11">
@@ -633,16 +633,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0.9556213017751479</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0.9584569732937686</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0.957037037037037</v>
       </c>
       <c r="E11" t="n">
-        <v>64</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12">
@@ -652,16 +652,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0.9700520833333334</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0.9700520833333334</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0.9700520833333334</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0.9700520833333334</v>
       </c>
     </row>
     <row r="13">
@@ -671,16 +671,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0.9216199581463267</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0.9773880684272067</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0.9437305781830476</v>
       </c>
       <c r="E13" t="n">
-        <v>512</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="14">
@@ -690,16 +690,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0.9755265321685243</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0.9700520833333334</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0.9715612050846026</v>
       </c>
       <c r="E14" t="n">
-        <v>512</v>
+        <v>3072</v>
       </c>
     </row>
   </sheetData>

--- a/results/CNN Models/full_dataset/ResNet50/result_for_ResNet50.xlsx
+++ b/results/CNN Models/full_dataset/ResNet50/result_for_ResNet50.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9941291585127201</v>
+        <v>0.9844155844155844</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9970559371933267</v>
+        <v>0.9921465968586387</v>
       </c>
       <c r="E2" t="n">
-        <v>508</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9927007299270073</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9353507565337001</v>
+        <v>0.9828571428571429</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9631728045325779</v>
+        <v>0.9913544668587896</v>
       </c>
       <c r="E3" t="n">
-        <v>727</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4">
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9864864864864865</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9931972789115646</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>73</v>
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5625</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9375</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.703125</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7">
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9761904761904762</v>
+        <v>0.975929978118162</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9454926624737946</v>
+        <v>0.9350104821802935</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9605963791267306</v>
+        <v>0.9550321199143469</v>
       </c>
       <c r="E7" t="n">
         <v>477</v>
@@ -614,13 +614,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8285714285714286</v>
+        <v>0.9052631578947369</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0.9885057471264368</v>
       </c>
       <c r="D10" t="n">
-        <v>0.90625</v>
+        <v>0.945054945054945</v>
       </c>
       <c r="E10" t="n">
         <v>87</v>
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9556213017751479</v>
+        <v>0.9365994236311239</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9584569732937686</v>
+        <v>0.9643916913946587</v>
       </c>
       <c r="D11" t="n">
-        <v>0.957037037037037</v>
+        <v>0.9502923976608187</v>
       </c>
       <c r="E11" t="n">
         <v>337</v>
@@ -652,16 +652,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9700520833333334</v>
+        <v>0.9796875</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9700520833333334</v>
+        <v>0.9796875</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9700520833333334</v>
+        <v>0.9796875</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9700520833333334</v>
+        <v>0.9796875</v>
       </c>
     </row>
     <row r="13">
@@ -671,16 +671,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9216199581463267</v>
+        <v>0.9722208144059608</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9773880684272067</v>
+        <v>0.9867845355529334</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9437305781830476</v>
+        <v>0.9790751871376779</v>
       </c>
       <c r="E13" t="n">
-        <v>3072</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="14">
@@ -690,16 +690,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9755265321685243</v>
+        <v>0.9802046900610939</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9700520833333334</v>
+        <v>0.9796875</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9715612050846026</v>
+        <v>0.9797258337443944</v>
       </c>
       <c r="E14" t="n">
-        <v>3072</v>
+        <v>2560</v>
       </c>
     </row>
   </sheetData>

--- a/results/CNN Models/full_dataset/ResNet50/result_for_ResNet50.xlsx
+++ b/results/CNN Models/full_dataset/ResNet50/result_for_ResNet50.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9844155844155844</v>
+        <v>0.9717948717948718</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9921465968586387</v>
+        <v>0.9856957087126138</v>
       </c>
       <c r="E2" t="n">
         <v>379</v>
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.9985315712187959</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9970802919708029</v>
+        <v>0.9927007299270073</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9985380116959064</v>
+        <v>0.9956076134699854</v>
       </c>
       <c r="E5" t="n">
         <v>685</v>
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.975929978118162</v>
+        <v>0.9570815450643777</v>
       </c>
       <c r="C7" t="n">
         <v>0.9350104821802935</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9550321199143469</v>
+        <v>0.9459172852598091</v>
       </c>
       <c r="E7" t="n">
         <v>477</v>
@@ -595,13 +595,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.92</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.9387755102040817</v>
       </c>
       <c r="E9" t="n">
         <v>46</v>
@@ -614,13 +614,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9052631578947369</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9885057471264368</v>
+        <v>0.9655172413793104</v>
       </c>
       <c r="D10" t="n">
-        <v>0.945054945054945</v>
+        <v>0.9385474860335196</v>
       </c>
       <c r="E10" t="n">
         <v>87</v>
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9365994236311239</v>
+        <v>0.9375</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9643916913946587</v>
+        <v>0.9347181008902077</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9502923976608187</v>
+        <v>0.9361069836552749</v>
       </c>
       <c r="E11" t="n">
         <v>337</v>
@@ -652,16 +652,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9796875</v>
+        <v>0.973828125</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9796875</v>
+        <v>0.973828125</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9796875</v>
+        <v>0.973828125</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9796875</v>
+        <v>0.973828125</v>
       </c>
     </row>
     <row r="13">
@@ -671,13 +671,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9722208144059608</v>
+        <v>0.9662566850954299</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9867845355529334</v>
+        <v>0.9810803697233961</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9790751871376779</v>
+        <v>0.9732005054194074</v>
       </c>
       <c r="E13" t="n">
         <v>2560</v>
@@ -690,13 +690,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9802046900610939</v>
+        <v>0.9741784648405636</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9796875</v>
+        <v>0.973828125</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9797258337443944</v>
+        <v>0.9738483810721318</v>
       </c>
       <c r="E14" t="n">
         <v>2560</v>

--- a/results/CNN Models/full_dataset/ResNet50/result_for_ResNet50.xlsx
+++ b/results/CNN Models/full_dataset/ResNet50/result_for_ResNet50.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.9883268482490273</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0.9941291585127201</v>
       </c>
       <c r="E2" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.960167714884696</v>
+        <v>0.9885386819484241</v>
       </c>
       <c r="C3" t="n">
-        <v>0.89453125</v>
+        <v>0.9857142857142858</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9261880687563195</v>
+        <v>0.9871244635193133</v>
       </c>
       <c r="E3" t="n">
-        <v>512</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7289719626168224</v>
+        <v>0.9358974358974359</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8432432432432433</v>
+        <v>0.9668874172185431</v>
       </c>
       <c r="E4" t="n">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9970845481049563</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.9970802919708029</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9985401459854014</v>
+        <v>0.9985380116959064</v>
       </c>
       <c r="E5" t="n">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5641025641025641</v>
+        <v>0.9047619047619048</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5569620253164557</v>
+        <v>0.95</v>
       </c>
       <c r="E6" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7">
@@ -557,16 +557,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9443254817987152</v>
+        <v>0.9640591966173362</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8981670061099797</v>
+        <v>0.9559748427672956</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9206680584551148</v>
+        <v>0.96</v>
       </c>
       <c r="E7" t="n">
-        <v>491</v>
+        <v>477</v>
       </c>
     </row>
     <row r="8">
@@ -585,7 +585,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9">
@@ -595,16 +595,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9148936170212766</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9148936170212766</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9148936170212766</v>
+        <v>0.9662921348314607</v>
       </c>
       <c r="E9" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10">
@@ -614,16 +614,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8977272727272727</v>
+        <v>0.9148936170212766</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0.9885057471264368</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9461077844311377</v>
+        <v>0.9502762430939227</v>
       </c>
       <c r="E10" t="n">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11">
@@ -633,16 +633,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8595505617977528</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9053254437869822</v>
+        <v>0.9495548961424333</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8818443804034583</v>
+        <v>0.950965824665676</v>
       </c>
       <c r="E11" t="n">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12">
@@ -652,16 +652,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9400076423385556</v>
+        <v>0.9782340862422998</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9400076423385556</v>
+        <v>0.9782340862422998</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9400076423385556</v>
+        <v>0.9782340862422998</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9400076423385556</v>
+        <v>0.9782340862422998</v>
       </c>
     </row>
     <row r="13">
@@ -671,16 +671,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8852721158951493</v>
+        <v>0.9744096732114453</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9177019881020803</v>
+        <v>0.9716374577178813</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8988447323612409</v>
+        <v>0.9724213253537544</v>
       </c>
       <c r="E13" t="n">
-        <v>2617</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="14">
@@ -690,16 +690,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9434596369908791</v>
+        <v>0.9785414510790207</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9400076423385556</v>
+        <v>0.9782340862422998</v>
       </c>
       <c r="D14" t="n">
-        <v>0.940603047483934</v>
+        <v>0.9782351713455408</v>
       </c>
       <c r="E14" t="n">
-        <v>2617</v>
+        <v>2435</v>
       </c>
     </row>
   </sheetData>

--- a/results/CNN Models/full_dataset/ResNet50/result_for_ResNet50.xlsx
+++ b/results/CNN Models/full_dataset/ResNet50/result_for_ResNet50.xlsx
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9885386819484241</v>
+        <v>0.9774647887323944</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9857142857142858</v>
+        <v>0.9914285714285714</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9871244635193133</v>
+        <v>0.9843971631205674</v>
       </c>
       <c r="E3" t="n">
         <v>350</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9358974358974359</v>
+        <v>0.948051948051948</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9668874172185431</v>
+        <v>0.9733333333333334</v>
       </c>
       <c r="E4" t="n">
         <v>73</v>
@@ -541,10 +541,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9047619047619048</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="D6" t="n">
-        <v>0.95</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="E6" t="n">
         <v>42</v>
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9640591966173362</v>
+        <v>0.9602510460251046</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9559748427672956</v>
+        <v>0.9622641509433962</v>
       </c>
       <c r="D7" t="n">
-        <v>0.96</v>
+        <v>0.9612565445026178</v>
       </c>
       <c r="E7" t="n">
         <v>477</v>
@@ -598,10 +598,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9347826086956522</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9662921348314607</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="E9" t="n">
         <v>46</v>
@@ -614,13 +614,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9148936170212766</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9885057471264368</v>
+        <v>0.9770114942528736</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9502762430939227</v>
+        <v>0.9883720930232558</v>
       </c>
       <c r="E10" t="n">
         <v>87</v>
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9523809523809523</v>
+        <v>0.9470588235294117</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9495548961424333</v>
+        <v>0.9554896142433235</v>
       </c>
       <c r="D11" t="n">
-        <v>0.950965824665676</v>
+        <v>0.9512555391432792</v>
       </c>
       <c r="E11" t="n">
         <v>337</v>
@@ -652,16 +652,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9782340862422998</v>
+        <v>0.9786447638603696</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9782340862422998</v>
+        <v>0.9786447638603696</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9782340862422998</v>
+        <v>0.9786447638603696</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9782340862422998</v>
+        <v>0.9786447638603696</v>
       </c>
     </row>
     <row r="13">
@@ -671,13 +671,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9744096732114453</v>
+        <v>0.9821153454587886</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9716374577178813</v>
+        <v>0.9605841410623647</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9724213253537544</v>
+        <v>0.9700564139982397</v>
       </c>
       <c r="E13" t="n">
         <v>2435</v>
@@ -690,13 +690,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9785414510790207</v>
+        <v>0.9788723039847105</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9782340862422998</v>
+        <v>0.9786447638603696</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9782351713455408</v>
+        <v>0.9785086585170545</v>
       </c>
       <c r="E14" t="n">
         <v>2435</v>
